--- a/格式代码保留/日语原文/Map013.xlsx
+++ b/格式代码保留/日语原文/Map013.xlsx
@@ -1,21 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\AiNiee-Test-Dataset\格式代码保留\日语原文\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBC0117-2A3B-476E-8849-5BB2D3E9C3D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1" forceFullCalc="1"/>
+  <calcPr calcId="191029" forceFullCalc="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="292">
   <si>
     <t>Original Text</t>
   </si>
@@ -1185,17 +1203,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1219,13 +1238,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1515,19 +1542,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E167"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="145.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1544,32 +1569,32 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1577,17 +1602,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1595,7 +1620,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1603,7 +1628,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1611,7 +1636,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1619,7 +1644,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1627,7 +1652,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1635,7 +1660,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -1643,12 +1668,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -1656,7 +1681,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -1664,7 +1689,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -1672,7 +1697,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -1680,7 +1705,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -1688,7 +1713,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -1696,7 +1721,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -1704,7 +1729,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -1712,7 +1737,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -1720,7 +1745,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -1728,7 +1753,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -1736,7 +1761,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -1744,7 +1769,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -1752,7 +1777,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>48</v>
       </c>
@@ -1760,12 +1785,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -1773,7 +1798,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>52</v>
       </c>
@@ -1781,7 +1806,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>54</v>
       </c>
@@ -1789,7 +1814,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>56</v>
       </c>
@@ -1797,7 +1822,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>58</v>
       </c>
@@ -1805,7 +1830,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>60</v>
       </c>
@@ -1813,7 +1838,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>62</v>
       </c>
@@ -1821,7 +1846,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>64</v>
       </c>
@@ -1829,7 +1854,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>66</v>
       </c>
@@ -1837,7 +1862,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>68</v>
       </c>
@@ -1845,7 +1870,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>70</v>
       </c>
@@ -1853,17 +1878,17 @@
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>74</v>
       </c>
@@ -1871,12 +1896,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>77</v>
       </c>
@@ -1884,12 +1909,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>80</v>
       </c>
@@ -1897,7 +1922,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>82</v>
       </c>
@@ -1905,7 +1930,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>83</v>
       </c>
@@ -1913,7 +1938,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>85</v>
       </c>
@@ -1921,7 +1946,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>87</v>
       </c>
@@ -1929,7 +1954,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>89</v>
       </c>
@@ -1937,7 +1962,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>91</v>
       </c>
@@ -1945,7 +1970,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>93</v>
       </c>
@@ -1953,7 +1978,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>95</v>
       </c>
@@ -1961,7 +1986,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>97</v>
       </c>
@@ -1969,7 +1994,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>99</v>
       </c>
@@ -1977,7 +2002,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>101</v>
       </c>
@@ -1985,7 +2010,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>103</v>
       </c>
@@ -1993,7 +2018,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>105</v>
       </c>
@@ -2001,7 +2026,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>107</v>
       </c>
@@ -2009,7 +2034,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>108</v>
       </c>
@@ -2017,7 +2042,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>110</v>
       </c>
@@ -2025,7 +2050,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>112</v>
       </c>
@@ -2033,7 +2058,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>113</v>
       </c>
@@ -2041,7 +2066,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>115</v>
       </c>
@@ -2049,7 +2074,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>117</v>
       </c>
@@ -2057,7 +2082,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>119</v>
       </c>
@@ -2065,7 +2090,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>121</v>
       </c>
@@ -2073,7 +2098,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>123</v>
       </c>
@@ -2081,7 +2106,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>124</v>
       </c>
@@ -2089,7 +2114,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>126</v>
       </c>
@@ -2097,7 +2122,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>128</v>
       </c>
@@ -2105,7 +2130,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>130</v>
       </c>
@@ -2113,12 +2138,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>133</v>
       </c>
@@ -2126,7 +2151,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>135</v>
       </c>
@@ -2134,7 +2159,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>137</v>
       </c>
@@ -2142,17 +2167,17 @@
         <v>138</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>141</v>
       </c>
@@ -2160,7 +2185,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>143</v>
       </c>
@@ -2168,7 +2193,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>145</v>
       </c>
@@ -2176,7 +2201,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>147</v>
       </c>
@@ -2184,7 +2209,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>149</v>
       </c>
@@ -2192,7 +2217,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>151</v>
       </c>
@@ -2200,7 +2225,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>153</v>
       </c>
@@ -2208,7 +2233,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>155</v>
       </c>
@@ -2216,7 +2241,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>157</v>
       </c>
@@ -2224,7 +2249,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>159</v>
       </c>
@@ -2232,7 +2257,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>161</v>
       </c>
@@ -2240,7 +2265,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>163</v>
       </c>
@@ -2248,7 +2273,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>165</v>
       </c>
@@ -2256,7 +2281,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>167</v>
       </c>
@@ -2264,7 +2289,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>169</v>
       </c>
@@ -2272,7 +2297,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>171</v>
       </c>
@@ -2280,7 +2305,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>173</v>
       </c>
@@ -2288,7 +2313,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>175</v>
       </c>
@@ -2296,7 +2321,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>176</v>
       </c>
@@ -2304,7 +2329,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>178</v>
       </c>
@@ -2312,7 +2337,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>180</v>
       </c>
@@ -2320,7 +2345,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>182</v>
       </c>
@@ -2328,12 +2353,12 @@
         <v>183</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>185</v>
       </c>
@@ -2341,7 +2366,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>187</v>
       </c>
@@ -2349,7 +2374,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>189</v>
       </c>
@@ -2357,7 +2382,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>191</v>
       </c>
@@ -2365,7 +2390,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>193</v>
       </c>
@@ -2373,7 +2398,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>195</v>
       </c>
@@ -2381,7 +2406,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>197</v>
       </c>
@@ -2389,7 +2414,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>199</v>
       </c>
@@ -2397,7 +2422,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>201</v>
       </c>
@@ -2405,7 +2430,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>203</v>
       </c>
@@ -2413,7 +2438,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>204</v>
       </c>
@@ -2421,7 +2446,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>206</v>
       </c>
@@ -2429,12 +2454,12 @@
         <v>207</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>209</v>
       </c>
@@ -2442,7 +2467,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>211</v>
       </c>
@@ -2450,7 +2475,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>213</v>
       </c>
@@ -2458,7 +2483,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>215</v>
       </c>
@@ -2466,7 +2491,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>217</v>
       </c>
@@ -2474,7 +2499,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>219</v>
       </c>
@@ -2482,7 +2507,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>221</v>
       </c>
@@ -2490,7 +2515,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>223</v>
       </c>
@@ -2498,7 +2523,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>225</v>
       </c>
@@ -2506,7 +2531,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>227</v>
       </c>
@@ -2514,7 +2539,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>229</v>
       </c>
@@ -2522,7 +2547,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>231</v>
       </c>
@@ -2530,7 +2555,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>233</v>
       </c>
@@ -2538,7 +2563,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>235</v>
       </c>
@@ -2546,7 +2571,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>237</v>
       </c>
@@ -2554,7 +2579,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>238</v>
       </c>
@@ -2562,7 +2587,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>240</v>
       </c>
@@ -2570,7 +2595,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>242</v>
       </c>
@@ -2578,12 +2603,12 @@
         <v>243</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>245</v>
       </c>
@@ -2591,7 +2616,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>247</v>
       </c>
@@ -2599,7 +2624,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>249</v>
       </c>
@@ -2607,17 +2632,17 @@
         <v>250</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>253</v>
       </c>
@@ -2625,7 +2650,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>255</v>
       </c>
@@ -2633,12 +2658,12 @@
         <v>256</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>258</v>
       </c>
@@ -2646,7 +2671,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>260</v>
       </c>
@@ -2654,7 +2679,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>262</v>
       </c>
@@ -2662,7 +2687,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>264</v>
       </c>
@@ -2670,7 +2695,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>266</v>
       </c>
@@ -2678,7 +2703,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>267</v>
       </c>
@@ -2686,7 +2711,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>268</v>
       </c>
@@ -2694,12 +2719,12 @@
         <v>269</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>271</v>
       </c>
@@ -2707,12 +2732,12 @@
         <v>272</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>274</v>
       </c>
@@ -2720,7 +2745,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>276</v>
       </c>
@@ -2728,7 +2753,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>278</v>
       </c>
@@ -2736,12 +2761,12 @@
         <v>279</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>281</v>
       </c>
@@ -2749,12 +2774,12 @@
         <v>282</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>284</v>
       </c>
@@ -2762,12 +2787,12 @@
         <v>285</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>287</v>
       </c>
@@ -2775,12 +2800,12 @@
         <v>288</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>290</v>
       </c>
@@ -2789,8 +2814,7 @@
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
 </worksheet>
 </file>